--- a/JDA_v3/src/test/java/testData/snapshots.xlsx
+++ b/JDA_v3/src/test/java/testData/snapshots.xlsx
@@ -3,22 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991D9064-AC9A-4481-A186-7DD65041CE8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6DD7D4-ECD0-424E-8396-3E3E7DF1AF22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="InputData" sheetId="1" r:id="rId1"/>
-    <sheet name="WIP_SAP_SUPERSESSION_NEW" sheetId="2" r:id="rId2"/>
-    <sheet name="DDE_Profile" sheetId="3" r:id="rId3"/>
-    <sheet name="DFU" sheetId="4" r:id="rId4"/>
-    <sheet name="DFUMOVINGEVENTMAP" sheetId="5" r:id="rId5"/>
-    <sheet name="DFUDDEMAP" sheetId="6" r:id="rId6"/>
-    <sheet name="DFUEFFPRICE" sheetId="7" r:id="rId7"/>
-    <sheet name="FCSTnew" sheetId="8" r:id="rId8"/>
-    <sheet name="lewandowskiparam" sheetId="9" r:id="rId9"/>
-    <sheet name="meanvalueadj" sheetId="10" r:id="rId10"/>
-    <sheet name="targetdfumap" sheetId="11" r:id="rId11"/>
+    <sheet name="WIP_SAP_SUPERSESSION_NEW" sheetId="2" r:id="rId1"/>
+    <sheet name="DDE_Profile" sheetId="3" r:id="rId2"/>
+    <sheet name="DFU" sheetId="4" r:id="rId3"/>
+    <sheet name="DFUMOVINGEVENTMAP" sheetId="5" r:id="rId4"/>
+    <sheet name="DFUDDEMAP" sheetId="6" r:id="rId5"/>
+    <sheet name="DFUEFFPRICE" sheetId="7" r:id="rId6"/>
+    <sheet name="FCSTnew" sheetId="8" r:id="rId7"/>
+    <sheet name="lewandowskiparam" sheetId="9" r:id="rId8"/>
+    <sheet name="meanvalueadj" sheetId="10" r:id="rId9"/>
+    <sheet name="targetdfumap" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -27,10 +26,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -345,7 +340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59EE6C8D-4F05-4F94-B45C-6B9683D5C72B}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -357,20 +352,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D9FFBA-F086-4146-9173-12A8A2E7A107}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCDF931-DF36-4C52-AE4A-BD2F59B842B5}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -385,7 +366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59EE6C8D-4F05-4F94-B45C-6B9683D5C72B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01FC998-AC34-4240-A4EA-39540CEFC0FE}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -399,7 +380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01FC998-AC34-4240-A4EA-39540CEFC0FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C72EE74-396A-4FD2-A424-14930843B0EB}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -413,7 +394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C72EE74-396A-4FD2-A424-14930843B0EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D183B8BA-E7C5-4FD2-993B-8D4193D7DF32}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -427,7 +408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D183B8BA-E7C5-4FD2-993B-8D4193D7DF32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE47575-55F0-4010-88FD-A2E2AABE6F3B}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -441,7 +422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE47575-55F0-4010-88FD-A2E2AABE6F3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4CC4BAA-B156-4A9C-A0A7-9004078FC900}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -455,20 +436,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4CC4BAA-B156-4A9C-A0A7-9004078FC900}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CDF9CF-8BB8-4915-9408-50E9C5F027AC}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -482,12 +449,26 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194496AD-CE06-4A7C-80E1-8D02DBF432C3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194496AD-CE06-4A7C-80E1-8D02DBF432C3}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D9FFBA-F086-4146-9173-12A8A2E7A107}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
